--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9CC69-4402-4909-8166-FC0E70C8DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B9116-3D76-4C40-A982-9F7AE17BAAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -106,9 +106,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Any additional notes:</t>
-  </si>
-  <si>
     <t>regex(., '^[0-9]{2}$')</t>
   </si>
   <si>
@@ -121,100 +118,282 @@
     <t>No</t>
   </si>
   <si>
-    <t>oncho_1_community</t>
-  </si>
-  <si>
-    <t>1. Community Registration Form</t>
-  </si>
-  <si>
-    <t>r_State</t>
-  </si>
-  <si>
     <t>r_RecorderID</t>
   </si>
   <si>
+    <t>r_Date</t>
+  </si>
+  <si>
+    <t>Enter Recorder ID</t>
+  </si>
+  <si>
+    <t>Enter today’s date</t>
+  </si>
+  <si>
+    <t>2 digit code assigned to you</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>r_Start</t>
+  </si>
+  <si>
+    <t>r_End</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>r_RiverName</t>
+  </si>
+  <si>
+    <t>r_RiverBasin</t>
+  </si>
+  <si>
+    <t>r_GPS_river_basin</t>
+  </si>
+  <si>
+    <t>r_PossibleProspection</t>
+  </si>
+  <si>
+    <t>r_ReasonNoProspection</t>
+  </si>
+  <si>
+    <t>r_ReasonNoProspection_other</t>
+  </si>
+  <si>
+    <t>r_SiteSuitable</t>
+  </si>
+  <si>
+    <t>r_EvidenceOfLarvae</t>
+  </si>
+  <si>
+    <t>r_LarvaeRate</t>
+  </si>
+  <si>
+    <t>r_EvidenceofAdult</t>
+  </si>
+  <si>
+    <t>r_AdultRate</t>
+  </si>
+  <si>
+    <t>lbl_photo</t>
+  </si>
+  <si>
+    <t>photo_1</t>
+  </si>
+  <si>
+    <t>photo_2</t>
+  </si>
+  <si>
+    <t>photo_3</t>
+  </si>
+  <si>
+    <t>river_characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_Notes </t>
+  </si>
+  <si>
+    <t>Select Site ID</t>
+  </si>
+  <si>
+    <t>Name of river or stream</t>
+  </si>
+  <si>
+    <t>Name of river basin</t>
+  </si>
+  <si>
+    <t>Collect GPS data at the River Basin</t>
+  </si>
+  <si>
+    <t>Is this river possible for prospection?</t>
+  </si>
+  <si>
+    <t>Why is it not possible to prospect the river?</t>
+  </si>
+  <si>
+    <t>Please specify</t>
+  </si>
+  <si>
+    <t>At time of inspection did site appear suitable for black fly breeding</t>
+  </si>
+  <si>
+    <t>At time of inspection did site provide evidence of larvae</t>
+  </si>
+  <si>
+    <t>Please rate larvae abundance as few, some, or many</t>
+  </si>
+  <si>
+    <t>At time of inspection did site provide evidence of adult black flies</t>
+  </si>
+  <si>
+    <t>Please rate adult black fly abundance as few, some, or many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, please capture photos of the river basin for validation. Please capture three photos. The most critical features to capture in the photo are the flow of river water, vegetation surrounding the river, and rocks surrounding the river. </t>
+  </si>
+  <si>
+    <t>Please capture the  first photo of the river bed</t>
+  </si>
+  <si>
+    <t>Please capture the second photo of the river bed</t>
+  </si>
+  <si>
+    <t>Please capture the third photo of the river bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the characteristics of the river? Please choose as many as apply. </t>
+  </si>
+  <si>
+    <t>Additional notes to add ? e.g. rivre muddy/sand, pollution type, human activity, forested /shrub/ farming area.</t>
+  </si>
+  <si>
+    <t>Select Site Name</t>
+  </si>
+  <si>
+    <t>Insecurity</t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>No road access</t>
+  </si>
+  <si>
+    <t>River not flowing</t>
+  </si>
+  <si>
+    <t>Other (please specify)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>PossibleProspection</t>
+  </si>
+  <si>
+    <t>${r_ReasonNoProspection} = 'Other'</t>
+  </si>
+  <si>
     <t>r_LGA</t>
   </si>
   <si>
+    <t>Select LGA</t>
+  </si>
+  <si>
     <t>r_CommunityName</t>
   </si>
   <si>
-    <t>duplicate_confirmation</t>
-  </si>
-  <si>
-    <t>r_Date</t>
-  </si>
-  <si>
-    <t>r_CommunityAccessibility</t>
-  </si>
-  <si>
-    <t>r_InaccessibleReason</t>
-  </si>
-  <si>
-    <t>r_GPSCommunity</t>
-  </si>
-  <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>Select Local Government Area</t>
-  </si>
-  <si>
-    <t>Enter the name of Community</t>
-  </si>
-  <si>
-    <t>The community you just entered detail on may have already been registered. Please exit the form and check the case list to confirm it has not already been registered. If you've already completed that check select 'Yes' to proceed.</t>
-  </si>
-  <si>
-    <t>Enter today’s date</t>
-  </si>
-  <si>
-    <t>Were you able to access the Community?</t>
-  </si>
-  <si>
-    <t>Why were you unable to access the community?</t>
-  </si>
-  <si>
-    <t>Collect GPS data at the Community</t>
-  </si>
-  <si>
-    <t>2 digit code assigned to you</t>
-  </si>
-  <si>
-    <t>Works best outside of buildings</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>select_one yes</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>r_remarks</t>
-  </si>
-  <si>
-    <t>r_Start</t>
-  </si>
-  <si>
-    <t>r_End</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>${r_CommunityAccessibility} = 'No'</t>
+    <t>ph_water</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>What is the ph of the water?</t>
+  </si>
+  <si>
+    <t>11-50</t>
+  </si>
+  <si>
+    <t>More than 50</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>LarvaeRate</t>
+  </si>
+  <si>
+    <t>select_one LarvaeRate</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>select_one PossibleProspection</t>
+  </si>
+  <si>
+    <t>River rapids/fast flow</t>
+  </si>
+  <si>
+    <t>River Calm/Slow Flow</t>
+  </si>
+  <si>
+    <t>Rocky / Rocks Present</t>
+  </si>
+  <si>
+    <t>Vegetation/Substrate Present</t>
+  </si>
+  <si>
+    <t>Vegetation/Trailing Present</t>
+  </si>
+  <si>
+    <t>River Flooded</t>
+  </si>
+  <si>
+    <t>River Polluted</t>
+  </si>
+  <si>
+    <t>No Water</t>
+  </si>
+  <si>
+    <t>River.rapids/fast.flow</t>
+  </si>
+  <si>
+    <t>River.Calm/Slow.Flow</t>
+  </si>
+  <si>
+    <t>Rocky./.Rocks.Present</t>
+  </si>
+  <si>
+    <t>Vegetation/Substrate.Present</t>
+  </si>
+  <si>
+    <t>Vegetation/Trailing.Present</t>
+  </si>
+  <si>
+    <t>River.Flooded</t>
+  </si>
+  <si>
+    <t>River.Polluted</t>
+  </si>
+  <si>
+    <t>No.Water</t>
+  </si>
+  <si>
+    <t>select_multiple river_characteristics</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>#### Summary:
+Site Provides Evidence of Larvae: **${r_EvidenceOfLarvae}**
+Larvae Abundance: **${r_LarvaeRate}** 
+Site Provides Evidence of Adult Black Flies: **${r_EvidenceofAdult}**
+Black Fly Abundance:  **${r_AdultRate}**
+River Characteristics:  **${river_characteristics}**</t>
+  </si>
+  <si>
+    <t>oncho_2_river_inspection</t>
+  </si>
+  <si>
+    <t>2. River inspection Form</t>
   </si>
 </sst>
 </file>
@@ -336,11 +515,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -383,8 +559,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,347 +911,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="19.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="C18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1079,28 +1599,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1108,33 +1628,209 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1147,37 +1843,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="57.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B9116-3D76-4C40-A982-9F7AE17BAAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEDDD6-F83A-49D2-A21F-4760B3EB0116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEDDD6-F83A-49D2-A21F-4760B3EB0116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EF2C3-E3D6-4FD1-8157-65AB91C9B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -382,7 +382,13 @@
     <t>summary</t>
   </si>
   <si>
-    <t>#### Summary:
+    <t>oncho_2_river_inspection_v2</t>
+  </si>
+  <si>
+    <t>2. River inspection Form V2</t>
+  </si>
+  <si>
+    <t>###Summary:
 Site Provides Evidence of Larvae: **${r_EvidenceOfLarvae}**
 Larvae Abundance: **${r_LarvaeRate}** 
 Site Provides Evidence of Adult Black Flies: **${r_EvidenceofAdult}**
@@ -390,10 +396,13 @@
 River Characteristics:  **${river_characteristics}**</t>
   </si>
   <si>
-    <t>oncho_2_river_inspection</t>
-  </si>
-  <si>
-    <t>2. River inspection Form</t>
+    <t>${r_PossibleProspection} = 'No'</t>
+  </si>
+  <si>
+    <t>${r_EvidenceOfLarvae} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${r_EvidenceofAdult} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -913,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1211,9 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
@@ -1319,7 +1330,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
         <v>9</v>
@@ -1365,7 +1378,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
         <v>9</v>
@@ -1525,7 +1540,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1603,7 +1618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A23"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1843,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1868,10 +1883,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EF2C3-E3D6-4FD1-8157-65AB91C9B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173C4D4-D21E-4A82-93FE-694BACE7E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>type</t>
   </si>
@@ -256,9 +256,6 @@
     <t xml:space="preserve">What are the characteristics of the river? Please choose as many as apply. </t>
   </si>
   <si>
-    <t>Additional notes to add ? e.g. rivre muddy/sand, pollution type, human activity, forested /shrub/ farming area.</t>
-  </si>
-  <si>
     <t>Select Site Name</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>What is the ph of the water?</t>
   </si>
   <si>
     <t>11-50</t>
@@ -403,6 +397,53 @@
   </si>
   <si>
     <t>${r_EvidenceofAdult} = 'Yes'</t>
+  </si>
+  <si>
+    <t>What is the PH of the water?</t>
+  </si>
+  <si>
+    <t>. &gt;= 0 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>The PH must be between 0 and 10</t>
+  </si>
+  <si>
+    <t>Additional notes to add ? e.g. river muddy/sand, pollution type, human activity, forested /shrub/ farming area.</t>
+  </si>
+  <si>
+    <t>Please confirm the details summarised are correct</t>
+  </si>
+  <si>
+    <t>. = 'Yes'</t>
+  </si>
+  <si>
+    <t>Please go back and review your answers before proceeding</t>
+  </si>
+  <si>
+    <t>confirm_summary</t>
+  </si>
+  <si>
+    <t>if(
+    selected(${river_characteristics}, 'River.rapids/fast.flow') and
+     (selected(${river_characteristics}, 'River.Calm/Slow.Flow') or 
+        selected(${river_characteristics}, 'No.Water')),
+         false(), true()) and
+if(selected(${river_characteristics}, 'River.Calm/Slow.Flow') and 
+    selected(${river_characteristics}, 'No.Water'), false(), true()) and
+if(selected(${river_characteristics}, 'River.Calm/Slow.Flow') and
+    selected(${river_characteristics}, 'River.Flooded'), false(), true()) and 
+if(selected(${river_characteristics}, 'No.Water') and 
+    selected(${river_characteristics}, 'River.Flooded'), false(), true()) and 
+if(selected(${river_characteristics}, 'Vegetation/Substrate.Present') and 
+    selected(${river_characteristics}, 'Vegetation/Trailing.Present'), false(), true())</t>
+  </si>
+  <si>
+    <t>###Warning
+You cannot select two contradictory/opposite characteristics. 
+For example, 
+You cannot choose both "River Rapids" and "River Calm," as they represent opposite conditions.
+"No water" cannot be selected with "River Flooded,"
+"Vegetation/Substrate Present" cannot be chosen alongside "Vegetation/Trailing Present.""</t>
   </si>
 </sst>
 </file>
@@ -524,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -575,6 +616,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +970,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,7 +980,7 @@
     <col min="3" max="3" width="44.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="3" customWidth="1"/>
@@ -1020,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1042,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1199,7 +1243,7 @@
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>43</v>
@@ -1212,7 +1256,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
@@ -1237,7 +1281,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
@@ -1249,18 +1293,22 @@
     </row>
     <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -1318,7 +1366,7 @@
     </row>
     <row r="16" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>47</v>
@@ -1331,7 +1379,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
@@ -1366,7 +1414,7 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>49</v>
@@ -1379,7 +1427,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
@@ -1391,7 +1439,7 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>50</v>
@@ -1412,7 +1460,7 @@
     </row>
     <row r="20" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>51</v>
@@ -1433,7 +1481,7 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -1454,7 +1502,7 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>53</v>
@@ -1473,9 +1521,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="10" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>54</v>
@@ -1485,8 +1533,12 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
@@ -1504,7 +1556,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1534,13 +1586,13 @@
     </row>
     <row r="26" spans="1:13" s="10" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1553,14 +1605,24 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+    <row r="27" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1618,7 +1680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1674,90 +1736,90 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,10 +1827,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,10 +1838,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,10 +1849,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1798,10 +1860,10 @@
         <v>54</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1809,10 +1871,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1820,10 +1882,10 @@
         <v>54</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,10 +1893,10 @@
         <v>54</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,10 +1904,10 @@
         <v>54</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1883,10 +1945,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173C4D4-D21E-4A82-93FE-694BACE7E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936229F-FF37-40E3-B10A-DF17F2A9C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>. &gt;= 0 and . &lt;= 14</t>
   </si>
   <si>
-    <t>The PH must be between 0 and 10</t>
-  </si>
-  <si>
     <t>Additional notes to add ? e.g. river muddy/sand, pollution type, human activity, forested /shrub/ farming area.</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
 You cannot choose both "River Rapids" and "River Calm," as they represent opposite conditions.
 "No water" cannot be selected with "River Flooded,"
 "Vegetation/Substrate Present" cannot be chosen alongside "Vegetation/Trailing Present.""</t>
+  </si>
+  <si>
+    <t>The PH must be between 0 and 14</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1534,10 +1534,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
       <c r="F23" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1556,7 +1556,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1610,18 +1610,18 @@
         <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936229F-FF37-40E3-B10A-DF17F2A9C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395E292-BC69-4CD3-A310-205F6B55BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -374,12 +374,6 @@
   </si>
   <si>
     <t>summary</t>
-  </si>
-  <si>
-    <t>oncho_2_river_inspection_v2</t>
-  </si>
-  <si>
-    <t>2. River inspection Form V2</t>
   </si>
   <si>
     <t>###Summary:
@@ -444,6 +438,18 @@
   </si>
   <si>
     <t>The PH must be between 0 and 14</t>
+  </si>
+  <si>
+    <t>oncho_2_river_inspection_v3</t>
+  </si>
+  <si>
+    <t>2. River inspection Form V3</t>
+  </si>
+  <si>
+    <t>.&lt;=date(today())</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future</t>
   </si>
 </sst>
 </file>
@@ -970,7 +976,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1184,8 +1190,12 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
@@ -1256,7 +1266,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
@@ -1299,15 +1309,15 @@
         <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1379,7 +1389,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
@@ -1427,7 +1437,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
@@ -1534,10 +1544,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
       <c r="F23" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1556,7 +1566,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1592,7 +1602,7 @@
         <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1610,18 +1620,18 @@
         <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1921,7 +1931,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1945,10 +1955,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395E292-BC69-4CD3-A310-205F6B55BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FCA5C1-4CBE-4326-BF91-09A866ED172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
   <si>
     <t>type</t>
   </si>
@@ -440,16 +440,22 @@
     <t>The PH must be between 0 and 14</t>
   </si>
   <si>
-    <t>oncho_2_river_inspection_v3</t>
-  </si>
-  <si>
-    <t>2. River inspection Form V3</t>
-  </si>
-  <si>
     <t>.&lt;=date(today())</t>
   </si>
   <si>
     <t>The date cannot be in the future</t>
+  </si>
+  <si>
+    <t>2. River inspection Form V4</t>
+  </si>
+  <si>
+    <t>oncho_2_river_inspection_v4</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Enter the Community Name</t>
   </si>
 </sst>
 </file>
@@ -970,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1101,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1114,10 +1120,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1137,14 +1143,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="9"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1155,15 +1161,15 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1178,24 +1184,20 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
@@ -1207,18 +1209,22 @@
     </row>
     <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
@@ -1230,13 +1236,13 @@
     </row>
     <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1248,50 +1254,48 @@
         <v>9</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
@@ -1301,25 +1305,23 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>9</v>
@@ -1328,20 +1330,24 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
@@ -1356,10 +1362,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1374,23 +1380,21 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
         <v>9</v>
@@ -1399,21 +1403,23 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
@@ -1424,21 +1430,19 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
         <v>9</v>
@@ -1447,36 +1451,40 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1494,10 +1502,10 @@
         <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
@@ -1515,10 +1523,10 @@
         <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
@@ -1531,58 +1539,64 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" s="10" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="10" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:13" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1594,16 +1608,10 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="10" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>113</v>
-      </c>
+    <row r="26" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1615,24 +1623,20 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="10" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1640,31 +1644,37 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1677,6 +1687,25 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1930,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1955,10 +1984,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_2_river_inspection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FCA5C1-4CBE-4326-BF91-09A866ED172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F2497-356F-4C20-A5ED-2AB870E37FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">What are the characteristics of the river? Please choose as many as apply. </t>
-  </si>
-  <si>
-    <t>Select Site Name</t>
   </si>
   <si>
     <t>Insecurity</t>
@@ -446,16 +443,22 @@
     <t>The date cannot be in the future</t>
   </si>
   <si>
-    <t>2. River inspection Form V4</t>
-  </si>
-  <si>
-    <t>oncho_2_river_inspection_v4</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>Enter the Community Name</t>
+  </si>
+  <si>
+    <t>oncho_2_river_inspection_v5</t>
+  </si>
+  <si>
+    <t>2. River inspection Form V5</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>r_State</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -978,11 +981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,13 +1076,13 @@
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1091,6 +1094,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1098,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1120,10 +1124,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1135,7 +1139,6 @@
         <v>9</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,10 +1223,10 @@
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>43</v>
@@ -1295,7 +1298,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
@@ -1320,7 +1323,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -1332,21 +1335,21 @@
     </row>
     <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>47</v>
@@ -1418,7 +1421,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
       <c r="H17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
@@ -1453,7 +1456,7 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>49</v>
@@ -1466,7 +1469,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
@@ -1478,7 +1481,7 @@
     </row>
     <row r="20" spans="1:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>50</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="23" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>53</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="24" spans="1:13" s="10" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>54</v>
@@ -1573,10 +1576,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
       <c r="F24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1595,7 +1598,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="7"/>
@@ -1625,13 +1628,13 @@
     </row>
     <row r="27" spans="1:13" s="10" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -1649,18 +1652,18 @@
         <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1775,90 +1778,90 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,10 +1869,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,10 +1880,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,10 +1891,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1899,10 +1902,10 @@
         <v>54</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1910,10 +1913,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,10 +1924,10 @@
         <v>54</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,10 +1935,10 @@
         <v>54</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1943,10 +1946,10 @@
         <v>54</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1959,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1984,10 +1987,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
